--- a/data/trans_orig/IP26C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B261A48-7151-49B9-AC65-D5B1102FB0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA931441-53C6-4B49-B99D-724DFE7F5E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{110BBBC3-96D1-49E6-8958-65F6B53AC2E6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3DD073D7-1BA0-4241-B172-AD24FF89F14F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>89,82%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>90,25%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>10,18%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>14,93%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -236,120 +350,6 @@
     <t>12,04%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
     <t>90,57%</t>
   </si>
   <si>
@@ -407,6 +407,114 @@
     <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
   </si>
   <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
     <t>88,08%</t>
   </si>
   <si>
@@ -461,58 +569,58 @@
     <t>12,77%</t>
   </si>
   <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>89,23%</t>
@@ -569,114 +677,6 @@
     <t>15,48%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
     <t>89,09%</t>
   </si>
   <si>
@@ -734,6 +734,81 @@
     <t>Menores según si han tenido una quemadura en el último año en 2015 (Tasa respuesta: 99,01%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
     <t>91,43%</t>
   </si>
   <si>
@@ -782,46 +857,40 @@
     <t>10,8%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>86,41%</t>
@@ -872,75 +941,6 @@
     <t>13,22%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
     <t>90,7%</t>
   </si>
   <si>
@@ -992,6 +992,108 @@
     <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
     <t>86,89%</t>
   </si>
   <si>
@@ -1040,52 +1142,52 @@
     <t>15,43%</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>88,57%</t>
@@ -1140,108 +1242,6 @@
   </si>
   <si>
     <t>12,38%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
   </si>
   <si>
     <t>86,47%</t>
@@ -1681,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF8C4C9-5E2F-4982-BE52-9AF6886921C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A674BF86-574B-44A2-B59D-AB5A1380FA70}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>188753</v>
+        <v>23221</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1814,10 +1814,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>166993</v>
+        <v>18160</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1829,10 +1829,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>553</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>355746</v>
+        <v>41381</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1850,10 +1850,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>21401</v>
+        <v>2223</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1865,10 +1865,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>27548</v>
+        <v>4564</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1880,10 +1880,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>48949</v>
+        <v>6787</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1901,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>210154</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1916,10 +1916,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>194541</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1931,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>630</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>404695</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2109,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D10" s="7">
-        <v>191036</v>
+        <v>188753</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2124,34 +2124,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="I10" s="7">
-        <v>185348</v>
+        <v>166993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="N10" s="7">
-        <v>376384</v>
+        <v>355746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,49 +2160,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>16093</v>
+        <v>21401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>23305</v>
+        <v>27548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N11" s="7">
-        <v>39398</v>
+        <v>48949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,10 +2211,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7">
-        <v>207129</v>
+        <v>210154</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2226,10 +2226,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>208653</v>
+        <v>194541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2241,10 +2241,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="N12" s="7">
-        <v>415782</v>
+        <v>404695</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2258,55 +2258,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="D13" s="7">
-        <v>23221</v>
+        <v>133132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="I13" s="7">
-        <v>18160</v>
+        <v>126124</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>417</v>
       </c>
       <c r="N13" s="7">
-        <v>41381</v>
+        <v>259255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,49 +2315,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>2223</v>
+        <v>15886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>4564</v>
+        <v>11693</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>6787</v>
+        <v>27580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,10 +2366,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149018</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2381,10 +2381,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2396,10 +2396,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>286835</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2413,55 +2413,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="D16" s="7">
-        <v>133132</v>
+        <v>191036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="I16" s="7">
-        <v>126124</v>
+        <v>185348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="N16" s="7">
-        <v>259255</v>
+        <v>376384</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,43 +2473,43 @@
         <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>15886</v>
+        <v>16093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>11693</v>
+        <v>23305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N17" s="7">
-        <v>27580</v>
+        <v>39398</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>102</v>
@@ -2521,10 +2521,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="D18" s="7">
-        <v>149018</v>
+        <v>207129</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2536,10 +2536,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>208653</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2551,10 +2551,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>460</v>
+        <v>578</v>
       </c>
       <c r="N18" s="7">
-        <v>286835</v>
+        <v>415782</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2739,7 +2739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AF3EB1-19DC-4ECD-BCBC-94B33496FE96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE3A9AE-B063-459C-A437-44CF10944F9A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>194787</v>
+        <v>23587</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>122</v>
@@ -2872,10 +2872,10 @@
         <v>124</v>
       </c>
       <c r="H4" s="7">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>187725</v>
+        <v>19889</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>125</v>
@@ -2887,10 +2887,10 @@
         <v>127</v>
       </c>
       <c r="M4" s="7">
-        <v>572</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>382512</v>
+        <v>43477</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>128</v>
@@ -2908,10 +2908,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>26361</v>
+        <v>1868</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>131</v>
@@ -2923,10 +2923,10 @@
         <v>133</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>16797</v>
+        <v>2484</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>134</v>
@@ -2938,10 +2938,10 @@
         <v>136</v>
       </c>
       <c r="M5" s="7">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>43158</v>
+        <v>4351</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>137</v>
@@ -2959,10 +2959,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221148</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2974,10 +2974,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>204522</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2989,10 +2989,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>636</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>425670</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3167,10 +3167,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D10" s="7">
-        <v>183844</v>
+        <v>194787</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>158</v>
@@ -3182,10 +3182,10 @@
         <v>160</v>
       </c>
       <c r="H10" s="7">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="I10" s="7">
-        <v>177915</v>
+        <v>187725</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>161</v>
@@ -3197,10 +3197,10 @@
         <v>163</v>
       </c>
       <c r="M10" s="7">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="N10" s="7">
-        <v>361759</v>
+        <v>382512</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>164</v>
@@ -3218,10 +3218,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>22185</v>
+        <v>26361</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>167</v>
@@ -3233,10 +3233,10 @@
         <v>169</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>29256</v>
+        <v>16797</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>170</v>
@@ -3248,10 +3248,10 @@
         <v>172</v>
       </c>
       <c r="M11" s="7">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>51441</v>
+        <v>43158</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>173</v>
@@ -3269,10 +3269,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="D12" s="7">
-        <v>206029</v>
+        <v>221148</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3284,10 +3284,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="I12" s="7">
-        <v>207171</v>
+        <v>204522</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3299,10 +3299,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>636</v>
       </c>
       <c r="N12" s="7">
-        <v>413200</v>
+        <v>425670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3316,16 +3316,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="D13" s="7">
-        <v>23587</v>
+        <v>148608</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>176</v>
@@ -3337,10 +3337,10 @@
         <v>178</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="I13" s="7">
-        <v>19889</v>
+        <v>141861</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>179</v>
@@ -3352,10 +3352,10 @@
         <v>181</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>449</v>
       </c>
       <c r="N13" s="7">
-        <v>43477</v>
+        <v>290470</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>182</v>
@@ -3373,10 +3373,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>1868</v>
+        <v>15135</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>185</v>
@@ -3388,10 +3388,10 @@
         <v>187</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>2484</v>
+        <v>11995</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>188</v>
@@ -3403,10 +3403,10 @@
         <v>190</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>4351</v>
+        <v>27129</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>191</v>
@@ -3424,10 +3424,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>163743</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3439,10 +3439,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>153856</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3454,10 +3454,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>492</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>317599</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3471,16 +3471,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D16" s="7">
-        <v>148608</v>
+        <v>183844</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>194</v>
@@ -3492,10 +3492,10 @@
         <v>196</v>
       </c>
       <c r="H16" s="7">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="I16" s="7">
-        <v>141861</v>
+        <v>177915</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>197</v>
@@ -3507,10 +3507,10 @@
         <v>199</v>
       </c>
       <c r="M16" s="7">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="N16" s="7">
-        <v>290470</v>
+        <v>361759</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>200</v>
@@ -3528,10 +3528,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>15135</v>
+        <v>22185</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>203</v>
@@ -3543,10 +3543,10 @@
         <v>205</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>11995</v>
+        <v>29256</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>206</v>
@@ -3558,10 +3558,10 @@
         <v>208</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N17" s="7">
-        <v>27129</v>
+        <v>51441</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>209</v>
@@ -3579,10 +3579,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D18" s="7">
-        <v>163743</v>
+        <v>206029</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3594,10 +3594,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="I18" s="7">
-        <v>153856</v>
+        <v>207171</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3609,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="N18" s="7">
-        <v>317599</v>
+        <v>413200</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3797,7 +3797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B36938-BE4F-4775-B82C-21E327681BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9313187-F2BD-4276-8A50-FF419569AF2B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3915,49 +3915,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>203394</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21491</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="7">
-        <v>303</v>
-      </c>
-      <c r="I4" s="7">
-        <v>187299</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47065</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M4" s="7">
-        <v>604</v>
-      </c>
-      <c r="N4" s="7">
-        <v>390694</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +3966,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>19063</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16949</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="7">
-        <v>54</v>
-      </c>
-      <c r="N5" s="7">
-        <v>36012</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>222457</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4032,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>329</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>204248</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4047,10 +4047,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>658</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>426706</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4076,13 +4076,13 @@
         <v>110311</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>151</v>
@@ -4091,13 +4091,13 @@
         <v>102923</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>299</v>
@@ -4106,13 +4106,13 @@
         <v>213234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4127,13 @@
         <v>12191</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4142,13 +4142,13 @@
         <v>6889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4157,13 +4157,13 @@
         <v>19080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,49 +4225,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>301</v>
+      </c>
+      <c r="D10" s="7">
+        <v>203394</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="7">
-        <v>181455</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="7">
+        <v>303</v>
+      </c>
+      <c r="I10" s="7">
+        <v>187299</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M10" s="7">
+        <v>604</v>
+      </c>
+      <c r="N10" s="7">
+        <v>390694</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H10" s="7">
-        <v>249</v>
-      </c>
-      <c r="I10" s="7">
-        <v>183633</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M10" s="7">
-        <v>506</v>
-      </c>
-      <c r="N10" s="7">
-        <v>365088</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,46 +4279,46 @@
         <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>20572</v>
+        <v>19063</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="7">
+        <v>26</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16949</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M11" s="7">
+        <v>54</v>
+      </c>
+      <c r="N11" s="7">
+        <v>36012</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="7">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22391</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M11" s="7">
-        <v>58</v>
-      </c>
-      <c r="N11" s="7">
-        <v>42963</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="D12" s="7">
-        <v>202027</v>
+        <v>222457</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4342,10 +4342,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="I12" s="7">
-        <v>206024</v>
+        <v>204248</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4357,10 +4357,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="N12" s="7">
-        <v>408051</v>
+        <v>426706</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4374,55 +4374,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>149160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="7">
+        <v>226</v>
+      </c>
+      <c r="I13" s="7">
+        <v>136052</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M13" s="7">
+        <v>449</v>
+      </c>
+      <c r="N13" s="7">
+        <v>285211</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21491</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" s="7">
-        <v>53</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47065</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,49 +4431,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>16826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="7">
+        <v>30</v>
+      </c>
+      <c r="I14" s="7">
+        <v>18274</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M14" s="7">
+        <v>54</v>
+      </c>
+      <c r="N14" s="7">
+        <v>35101</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1036</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1036</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,10 +4482,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>165986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4497,10 +4497,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>154326</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4512,10 +4512,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>503</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>320312</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4529,55 +4529,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="D16" s="7">
-        <v>149160</v>
+        <v>181455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="7">
+        <v>249</v>
+      </c>
+      <c r="I16" s="7">
+        <v>183633</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="7">
-        <v>226</v>
-      </c>
-      <c r="I16" s="7">
-        <v>136052</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>506</v>
+      </c>
+      <c r="N16" s="7">
+        <v>365088</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="M16" s="7">
-        <v>449</v>
-      </c>
-      <c r="N16" s="7">
-        <v>285211</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,46 +4586,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>16826</v>
+        <v>20572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="7">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22391</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="7">
-        <v>30</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18274</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>58</v>
+      </c>
+      <c r="N17" s="7">
+        <v>42963</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M17" s="7">
-        <v>54</v>
-      </c>
-      <c r="N17" s="7">
-        <v>35101</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>299</v>
@@ -4637,10 +4637,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="D18" s="7">
-        <v>165986</v>
+        <v>202027</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4652,10 +4652,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="I18" s="7">
-        <v>154326</v>
+        <v>206024</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4667,10 +4667,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="N18" s="7">
-        <v>320312</v>
+        <v>408051</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4702,7 +4702,7 @@
         <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>952</v>
@@ -4750,7 +4750,7 @@
         <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>309</v>
@@ -4855,7 +4855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2C876B-9AFD-4D57-B1BE-2CC092A50ACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237DB576-64EB-4D16-B134-4CA79CB6168C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,10 +4973,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>217385</v>
+        <v>10506</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>317</v>
@@ -4988,34 +4988,34 @@
         <v>319</v>
       </c>
       <c r="H4" s="7">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>169618</v>
+        <v>14449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
-        <v>542</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>387003</v>
+        <v>24955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,49 +5024,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>32801</v>
+        <v>2192</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>22734</v>
+        <v>2338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>55535</v>
+        <v>4530</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,10 +5075,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5090,10 +5090,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5105,10 +5105,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5134,13 +5134,13 @@
         <v>97839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -5149,13 +5149,13 @@
         <v>91702</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>277</v>
@@ -5164,13 +5164,13 @@
         <v>189539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5185,13 @@
         <v>16757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5200,13 +5200,13 @@
         <v>12193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -5215,13 +5215,13 @@
         <v>28951</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,49 +5283,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="D10" s="7">
-        <v>155009</v>
+        <v>217385</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="I10" s="7">
-        <v>158115</v>
+        <v>169618</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
-        <v>433</v>
+        <v>542</v>
       </c>
       <c r="N10" s="7">
-        <v>313124</v>
+        <v>387003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,28 +5334,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>20007</v>
+        <v>32801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>12633</v>
+        <v>22734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>362</v>
@@ -5364,10 +5364,10 @@
         <v>363</v>
       </c>
       <c r="M11" s="7">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="N11" s="7">
-        <v>32640</v>
+        <v>55535</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>364</v>
@@ -5385,10 +5385,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5400,10 +5400,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>170748</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5415,10 +5415,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>345764</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5432,16 +5432,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7">
-        <v>10506</v>
+        <v>162337</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>367</v>
@@ -5453,34 +5453,34 @@
         <v>369</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="I13" s="7">
-        <v>14449</v>
+        <v>156149</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>419</v>
+      </c>
+      <c r="N13" s="7">
+        <v>318486</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="M13" s="7">
-        <v>40</v>
-      </c>
-      <c r="N13" s="7">
-        <v>24955</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,49 +5489,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>2192</v>
+        <v>10450</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11753</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2338</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" s="7">
+        <v>31</v>
+      </c>
+      <c r="N14" s="7">
+        <v>22203</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4530</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,10 +5540,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>172787</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5555,10 +5555,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5570,10 +5570,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>340689</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5587,55 +5587,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" s="7">
-        <v>162337</v>
+        <v>155009</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>221</v>
+      </c>
+      <c r="I16" s="7">
+        <v>158115</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H16" s="7">
-        <v>208</v>
-      </c>
-      <c r="I16" s="7">
-        <v>156149</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>433</v>
+      </c>
+      <c r="N16" s="7">
+        <v>313124</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="M16" s="7">
-        <v>419</v>
-      </c>
-      <c r="N16" s="7">
-        <v>318486</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,40 +5644,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>10450</v>
+        <v>20007</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>11753</v>
+        <v>12633</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="M17" s="7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N17" s="7">
-        <v>22203</v>
+        <v>32640</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>398</v>
@@ -5695,10 +5695,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>172787</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5710,10 +5710,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>170748</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5725,10 +5725,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="N18" s="7">
-        <v>340689</v>
+        <v>345764</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5754,7 +5754,7 @@
         <v>643076</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>401</v>
@@ -5805,7 +5805,7 @@
         <v>82206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>409</v>

--- a/data/trans_orig/IP26C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA931441-53C6-4B49-B99D-724DFE7F5E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C8A47D-30C6-4713-B365-454A8785C52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3DD073D7-1BA0-4241-B172-AD24FF89F14F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{797C9A89-20C9-4844-A3DF-FF28FD6EA785}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
   <si>
     <t>Menores según si han tenido una quemadura en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1159 +137,1174 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>86,39%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2015 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>90,66%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>88,35%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1315,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1396,39 +1411,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1480,7 +1495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1591,13 +1606,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1606,6 +1614,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1670,19 +1685,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A674BF86-574B-44A2-B59D-AB5A1380FA70}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB43FC-B458-44A4-8843-38B963BFE9AE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1799,10 +1834,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>23221</v>
+        <v>2223</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1814,10 +1849,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>18160</v>
+        <v>4564</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1829,10 +1864,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>41381</v>
+        <v>6787</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1850,10 +1885,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>2223</v>
+        <v>23221</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1865,10 +1900,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>4564</v>
+        <v>18160</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1880,10 +1915,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>6787</v>
+        <v>41381</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1954,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>112812</v>
+        <v>11997</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1969,10 +2004,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>103498</v>
+        <v>11797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1984,10 +2019,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>326</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>216309</v>
+        <v>23794</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2005,10 +2040,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>11997</v>
+        <v>112812</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2020,10 +2055,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I8" s="7">
-        <v>11797</v>
+        <v>103498</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2035,10 +2070,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="N8" s="7">
-        <v>23794</v>
+        <v>216309</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2109,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>188753</v>
+        <v>21401</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2124,10 +2159,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>166993</v>
+        <v>27548</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2139,10 +2174,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>553</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>355746</v>
+        <v>48949</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2160,10 +2195,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="D11" s="7">
-        <v>21401</v>
+        <v>188753</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2175,10 +2210,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="I11" s="7">
-        <v>27548</v>
+        <v>166993</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2190,10 +2225,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>553</v>
       </c>
       <c r="N11" s="7">
-        <v>48949</v>
+        <v>355746</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2264,10 +2299,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>133132</v>
+        <v>15886</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2279,10 +2314,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>126124</v>
+        <v>11693</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2294,10 +2329,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>259255</v>
+        <v>27580</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2315,10 +2350,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>15886</v>
+        <v>133132</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2330,10 +2365,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>11693</v>
+        <v>126124</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2345,10 +2380,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>417</v>
       </c>
       <c r="N14" s="7">
-        <v>27580</v>
+        <v>259255</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2419,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>281</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>191036</v>
+        <v>16093</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2434,34 +2469,34 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>185348</v>
+        <v>23305</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>524</v>
+        <v>54</v>
       </c>
       <c r="N16" s="7">
-        <v>376384</v>
+        <v>39398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,49 +2505,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="D17" s="7">
-        <v>16093</v>
+        <v>191036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="I17" s="7">
-        <v>23305</v>
+        <v>185348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>54</v>
+        <v>524</v>
       </c>
       <c r="N17" s="7">
-        <v>39398</v>
+        <v>376384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,49 +2609,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>975</v>
+        <v>102</v>
       </c>
       <c r="D19" s="7">
-        <v>648955</v>
+        <v>67600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>898</v>
+        <v>117</v>
       </c>
       <c r="I19" s="7">
-        <v>600121</v>
+        <v>78908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1873</v>
+        <v>219</v>
       </c>
       <c r="N19" s="7">
-        <v>1249077</v>
+        <v>146507</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,49 +2660,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>102</v>
+        <v>975</v>
       </c>
       <c r="D20" s="7">
-        <v>67600</v>
+        <v>648955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>117</v>
+        <v>898</v>
       </c>
       <c r="I20" s="7">
-        <v>78908</v>
+        <v>600121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>219</v>
+        <v>1873</v>
       </c>
       <c r="N20" s="7">
-        <v>146507</v>
+        <v>1249077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,6 +2754,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2739,8 +2779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE3A9AE-B063-459C-A437-44CF10944F9A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7C8A48-19F6-4F34-80EC-85103A83A486}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2756,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2857,49 +2897,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>23587</v>
+        <v>1868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>19889</v>
+        <v>2484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>43477</v>
+        <v>4351</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,49 +2948,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>1868</v>
+        <v>23587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>2484</v>
+        <v>19889</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>4351</v>
+        <v>43477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,49 +3052,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>112864</v>
+        <v>15735</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>102969</v>
+        <v>12687</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>215832</v>
+        <v>28422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,49 +3103,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7">
-        <v>15735</v>
+        <v>112864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>12687</v>
+        <v>102969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="N8" s="7">
-        <v>28422</v>
+        <v>215832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,49 +3207,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>194787</v>
+        <v>26361</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>187725</v>
+        <v>16797</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
-        <v>572</v>
+        <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>382512</v>
+        <v>43158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,49 +3258,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="D11" s="7">
-        <v>26361</v>
+        <v>194787</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="I11" s="7">
-        <v>16797</v>
+        <v>187725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
-        <v>64</v>
+        <v>572</v>
       </c>
       <c r="N11" s="7">
-        <v>43158</v>
+        <v>382512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,49 +3362,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>148608</v>
+        <v>15135</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>141861</v>
+        <v>11995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>449</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>290470</v>
+        <v>27129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,49 +3413,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>15135</v>
+        <v>148608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>11995</v>
+        <v>141861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>449</v>
       </c>
       <c r="N14" s="7">
-        <v>27129</v>
+        <v>290470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,49 +3517,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>183844</v>
+        <v>22185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>177915</v>
+        <v>29256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
-        <v>481</v>
+        <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>361759</v>
+        <v>51441</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,25 +3568,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="D17" s="7">
-        <v>22185</v>
+        <v>183844</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>205</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="I17" s="7">
-        <v>29256</v>
+        <v>177915</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>206</v>
@@ -3555,22 +3595,22 @@
         <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="7">
+        <v>481</v>
+      </c>
+      <c r="N17" s="7">
+        <v>361759</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M17" s="7">
-        <v>70</v>
-      </c>
-      <c r="N17" s="7">
-        <v>51441</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,49 +3672,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>942</v>
+        <v>120</v>
       </c>
       <c r="D19" s="7">
-        <v>663691</v>
+        <v>81283</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>102</v>
+      </c>
+      <c r="I19" s="7">
+        <v>73218</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H19" s="7">
-        <v>912</v>
-      </c>
-      <c r="I19" s="7">
-        <v>630359</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>222</v>
+      </c>
+      <c r="N19" s="7">
+        <v>154501</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M19" s="7">
-        <v>1854</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1294050</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,49 +3723,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>120</v>
+        <v>942</v>
       </c>
       <c r="D20" s="7">
-        <v>81283</v>
+        <v>663691</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>912</v>
+      </c>
+      <c r="I20" s="7">
+        <v>630359</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H20" s="7">
-        <v>102</v>
-      </c>
-      <c r="I20" s="7">
-        <v>73218</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1854</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1294050</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="M20" s="7">
-        <v>222</v>
-      </c>
-      <c r="N20" s="7">
-        <v>154501</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,6 +3817,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3797,8 +3842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9313187-F2BD-4276-8A50-FF419569AF2B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3153B4-1605-4CEB-8C1F-5931AEF4A644}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3814,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3915,49 +3960,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21491</v>
+        <v>1036</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>47065</v>
+        <v>1036</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4011,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>21491</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1036</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="7">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47065</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1036</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,49 +4115,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>110311</v>
+        <v>12191</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6889</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="7">
-        <v>151</v>
-      </c>
-      <c r="I7" s="7">
-        <v>102923</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>27</v>
+      </c>
+      <c r="N7" s="7">
+        <v>19080</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="M7" s="7">
-        <v>299</v>
-      </c>
-      <c r="N7" s="7">
-        <v>213234</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,49 +4166,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7">
-        <v>12191</v>
+        <v>110311</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="7">
+        <v>151</v>
+      </c>
+      <c r="I8" s="7">
+        <v>102923</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6889</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>299</v>
+      </c>
+      <c r="N8" s="7">
+        <v>213234</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M8" s="7">
-        <v>27</v>
-      </c>
-      <c r="N8" s="7">
-        <v>19080</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,49 +4270,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>203394</v>
+        <v>19063</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="7">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16949</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="7">
-        <v>303</v>
-      </c>
-      <c r="I10" s="7">
-        <v>187299</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>54</v>
+      </c>
+      <c r="N10" s="7">
+        <v>36012</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M10" s="7">
-        <v>604</v>
-      </c>
-      <c r="N10" s="7">
-        <v>390694</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,49 +4321,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="D11" s="7">
-        <v>19063</v>
+        <v>203394</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>303</v>
+      </c>
+      <c r="I11" s="7">
+        <v>187299</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16949</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>604</v>
+      </c>
+      <c r="N11" s="7">
+        <v>390693</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M11" s="7">
-        <v>54</v>
-      </c>
-      <c r="N11" s="7">
-        <v>36012</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,7 +4405,7 @@
         <v>658</v>
       </c>
       <c r="N12" s="7">
-        <v>426706</v>
+        <v>426705</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4380,25 +4425,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>149160</v>
+        <v>16826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>272</v>
       </c>
       <c r="H13" s="7">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>136052</v>
+        <v>18274</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>273</v>
@@ -4410,10 +4455,10 @@
         <v>275</v>
       </c>
       <c r="M13" s="7">
-        <v>449</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>285211</v>
+        <v>35101</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>276</v>
@@ -4422,7 +4467,7 @@
         <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,49 +4476,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="D14" s="7">
-        <v>16826</v>
+        <v>149160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>18274</v>
+        <v>136052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
-        <v>54</v>
+        <v>449</v>
       </c>
       <c r="N14" s="7">
-        <v>35101</v>
+        <v>285211</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,49 +4580,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>181455</v>
+        <v>20572</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>183633</v>
+        <v>22391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
-        <v>506</v>
+        <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>365088</v>
+        <v>42963</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,49 +4631,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="D17" s="7">
-        <v>20572</v>
+        <v>181455</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="I17" s="7">
-        <v>22391</v>
+        <v>183633</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
-        <v>58</v>
+        <v>506</v>
       </c>
       <c r="N17" s="7">
-        <v>42963</v>
+        <v>365088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,49 +4735,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>959</v>
+        <v>97</v>
       </c>
       <c r="D19" s="7">
-        <v>669894</v>
+        <v>68652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
-        <v>952</v>
+        <v>97</v>
       </c>
       <c r="I19" s="7">
-        <v>631399</v>
+        <v>65539</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
-        <v>1911</v>
+        <v>194</v>
       </c>
       <c r="N19" s="7">
-        <v>1301293</v>
+        <v>134191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,49 +4786,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>97</v>
+        <v>959</v>
       </c>
       <c r="D20" s="7">
-        <v>68652</v>
+        <v>669894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
-        <v>97</v>
+        <v>952</v>
       </c>
       <c r="I20" s="7">
-        <v>65539</v>
+        <v>631399</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
-        <v>194</v>
+        <v>1911</v>
       </c>
       <c r="N20" s="7">
-        <v>134191</v>
+        <v>1301293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,6 +4880,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4855,8 +4905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237DB576-64EB-4D16-B134-4CA79CB6168C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B697653B-BBB0-42FC-AB21-64A07F02C4C7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4872,7 +4922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4973,49 +5023,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>10506</v>
+        <v>2192</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>14449</v>
+        <v>2338</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>24955</v>
+        <v>4530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,49 +5074,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>2192</v>
+        <v>10506</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>2338</v>
+        <v>14449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="N5" s="7">
-        <v>4530</v>
+        <v>24955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,49 +5178,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>97839</v>
+        <v>16757</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>91702</v>
+        <v>12193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>189539</v>
+        <v>28951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,49 +5229,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7">
-        <v>16757</v>
+        <v>97839</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I8" s="7">
-        <v>12193</v>
+        <v>91702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="N8" s="7">
-        <v>28951</v>
+        <v>189539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,49 +5333,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>217385</v>
+        <v>32801</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>169618</v>
+        <v>22734</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
-        <v>542</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>387003</v>
+        <v>55535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,49 +5384,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="D11" s="7">
-        <v>32801</v>
+        <v>217385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7">
-        <v>22734</v>
+        <v>169618</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="N11" s="7">
-        <v>55535</v>
+        <v>387003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,49 +5488,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>162337</v>
+        <v>10450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>156149</v>
+        <v>11753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
-        <v>419</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>318486</v>
+        <v>22203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,49 +5539,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>10450</v>
+        <v>162337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>11753</v>
+        <v>156149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>22203</v>
+        <v>318486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,49 +5643,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>155009</v>
+        <v>20007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>158115</v>
+        <v>12633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
-        <v>433</v>
+        <v>44</v>
       </c>
       <c r="N16" s="7">
-        <v>313124</v>
+        <v>32640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,49 +5694,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="D17" s="7">
-        <v>20007</v>
+        <v>155009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I17" s="7">
-        <v>12633</v>
+        <v>158115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="N17" s="7">
-        <v>32640</v>
+        <v>313124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,49 +5798,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>865</v>
+        <v>111</v>
       </c>
       <c r="D19" s="7">
-        <v>643076</v>
+        <v>82206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>183</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
-        <v>846</v>
+        <v>95</v>
       </c>
       <c r="I19" s="7">
-        <v>590032</v>
+        <v>61652</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
-        <v>1711</v>
+        <v>206</v>
       </c>
       <c r="N19" s="7">
-        <v>1233109</v>
+        <v>143858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,49 +5849,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>111</v>
+        <v>865</v>
       </c>
       <c r="D20" s="7">
-        <v>82206</v>
+        <v>643076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
-        <v>95</v>
+        <v>846</v>
       </c>
       <c r="I20" s="7">
-        <v>61652</v>
+        <v>590032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
-        <v>206</v>
+        <v>1711</v>
       </c>
       <c r="N20" s="7">
-        <v>143858</v>
+        <v>1233109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,6 +5943,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP26C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C8A47D-30C6-4713-B365-454A8785C52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{958C4125-475A-484A-B306-BA14BF434E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{797C9A89-20C9-4844-A3DF-FF28FD6EA785}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F47A852-DDA2-42E1-8EAE-5D9557CF37E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
   <si>
     <t>Menores según si han tenido una quemadura en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,313 +107,313 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -428,31 +428,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>24,1%</t>
+    <t>26,38%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>75,9%</t>
+    <t>73,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -461,19 +461,19 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>12,24%</t>
@@ -482,28 +482,31 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>17,75%</t>
+    <t>17,59%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>16,61%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>82,25%</t>
+    <t>82,41%</t>
   </si>
   <si>
     <t>91,59%</t>
@@ -512,637 +515,622 @@
     <t>89,03%</t>
   </si>
   <si>
-    <t>83,39%</t>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>88,36%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>6,1%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>16,18%</t>
+    <t>16,05%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>91,83%</t>
@@ -1151,127 +1139,94 @@
     <t>87,45%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>9,22%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>92,6%</t>
   </si>
   <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>10,45%</t>
@@ -1280,28 +1235,13 @@
     <t>9,08%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
   </si>
   <si>
     <t>90,92%</t>
@@ -1716,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB43FC-B458-44A4-8843-38B963BFE9AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF01770-893E-4E63-9F9F-966E014F96D9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2779,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7C8A48-19F6-4F34-80EC-85103A83A486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796667E-76BA-4A1C-96FE-AE489A313180}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3076,10 +3016,10 @@
         <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -3088,13 +3028,13 @@
         <v>28422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3049,13 @@
         <v>112864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -3124,13 +3064,13 @@
         <v>102969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>303</v>
@@ -3139,13 +3079,13 @@
         <v>215832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3153,13 @@
         <v>26361</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3228,13 +3168,13 @@
         <v>16797</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -3243,13 +3183,13 @@
         <v>43158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3204,13 @@
         <v>194787</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>291</v>
@@ -3279,13 +3219,13 @@
         <v>187725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>572</v>
@@ -3294,13 +3234,13 @@
         <v>382512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3308,13 @@
         <v>15135</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3383,13 +3323,13 @@
         <v>11995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -3398,13 +3338,13 @@
         <v>27129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3359,13 @@
         <v>148608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -3434,7 +3374,7 @@
         <v>141861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>192</v>
@@ -3529,7 +3469,7 @@
         <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3538,13 +3478,13 @@
         <v>29256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -3553,13 +3493,13 @@
         <v>51441</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3514,13 @@
         <v>183844</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>233</v>
@@ -3589,13 +3529,13 @@
         <v>177915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>481</v>
@@ -3604,13 +3544,13 @@
         <v>361759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3618,13 @@
         <v>81283</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -3693,13 +3633,13 @@
         <v>73218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -3708,13 +3648,13 @@
         <v>154501</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3669,13 @@
         <v>663691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>912</v>
@@ -3744,13 +3684,13 @@
         <v>630359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1854</v>
@@ -3759,13 +3699,13 @@
         <v>1294050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3153B4-1605-4CEB-8C1F-5931AEF4A644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201EB2E3-8972-410B-8A2D-52F488541882}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3859,7 +3799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,10 +3909,10 @@
         <v>128</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3981,13 +3921,13 @@
         <v>1036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3996,13 +3936,13 @@
         <v>1036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +3960,7 @@
         <v>138</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -4032,10 +3972,10 @@
         <v>21491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>138</v>
@@ -4047,10 +3987,10 @@
         <v>47065</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>138</v>
@@ -4121,13 +4061,13 @@
         <v>12191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4136,13 +4076,13 @@
         <v>6889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4151,13 +4091,13 @@
         <v>19080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4112,13 @@
         <v>110311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>151</v>
@@ -4187,13 +4127,13 @@
         <v>102923</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>299</v>
@@ -4202,10 +4142,10 @@
         <v>213234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>254</v>
@@ -4282,7 +4222,7 @@
         <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4291,13 +4231,13 @@
         <v>16949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -4306,13 +4246,13 @@
         <v>36012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4267,13 @@
         <v>203394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -4342,13 +4282,13 @@
         <v>187299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>604</v>
@@ -4357,13 +4297,13 @@
         <v>390693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4371,13 @@
         <v>16826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4446,13 +4386,13 @@
         <v>18274</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -4461,13 +4401,13 @@
         <v>35101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4422,13 @@
         <v>149160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -4497,13 +4437,13 @@
         <v>136052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>449</v>
@@ -4744,10 +4684,10 @@
         <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>97</v>
@@ -4756,13 +4696,13 @@
         <v>65539</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>194</v>
@@ -4771,13 +4711,13 @@
         <v>134191</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4732,13 @@
         <v>669894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>952</v>
@@ -4807,13 +4747,13 @@
         <v>631399</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>1911</v>
@@ -4822,13 +4762,13 @@
         <v>1301293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B697653B-BBB0-42FC-AB21-64A07F02C4C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA233104-C436-4AAC-AB6D-3161FFA2523E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4922,7 +4862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5029,13 +4969,13 @@
         <v>2192</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5044,13 +4984,13 @@
         <v>2338</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5059,13 +4999,13 @@
         <v>4530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5020,13 @@
         <v>10506</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5095,13 +5035,13 @@
         <v>14449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -5110,13 +5050,13 @@
         <v>24955</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5124,13 @@
         <v>16757</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5199,13 +5139,13 @@
         <v>12193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5214,13 +5154,13 @@
         <v>28951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5175,13 @@
         <v>97839</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -5250,13 +5190,13 @@
         <v>91702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>277</v>
@@ -5265,13 +5205,13 @@
         <v>189539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5279,13 @@
         <v>32801</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5354,13 +5294,13 @@
         <v>22734</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -5369,13 +5309,13 @@
         <v>55535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5330,13 @@
         <v>217385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -5405,13 +5345,13 @@
         <v>169618</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>542</v>
@@ -5420,13 +5360,13 @@
         <v>387003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5434,13 @@
         <v>10450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5509,13 +5449,13 @@
         <v>11753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5524,13 +5464,13 @@
         <v>22203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5485,13 @@
         <v>162337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>208</v>
@@ -5560,13 +5500,13 @@
         <v>156149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -5575,13 +5515,13 @@
         <v>318486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5589,13 @@
         <v>20007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5664,13 +5604,13 @@
         <v>12633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -5679,13 +5619,13 @@
         <v>32640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5640,13 @@
         <v>155009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -5715,13 +5655,13 @@
         <v>158115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>433</v>
@@ -5730,13 +5670,13 @@
         <v>313124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5744,13 @@
         <v>82206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -5819,13 +5759,13 @@
         <v>61652</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -5834,13 +5774,13 @@
         <v>143858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5795,13 @@
         <v>643076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>846</v>
@@ -5870,13 +5810,13 @@
         <v>590032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>68</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>1711</v>
@@ -5885,13 +5825,13 @@
         <v>1233109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP26C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{958C4125-475A-484A-B306-BA14BF434E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5204D2-B43F-4CCC-B10D-E382F1A21F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F47A852-DDA2-42E1-8EAE-5D9557CF37E8}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{F54A1402-E83A-473D-96DD-97D3A1D55008}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="342">
   <si>
     <t>Menores según si han tenido una quemadura en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1183 +68,1003 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
 </sst>
 </file>
@@ -1656,8 +1476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF01770-893E-4E63-9F9F-966E014F96D9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C377AE-4C7B-4B99-B966-E51A37678608}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1774,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>2223</v>
+        <v>16361</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1789,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>4564</v>
+        <v>14220</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1804,10 +1624,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>6787</v>
+        <v>30581</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1825,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>23221</v>
+        <v>121658</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1840,10 +1660,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="I5" s="7">
-        <v>18160</v>
+        <v>136033</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1855,10 +1675,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>379</v>
       </c>
       <c r="N5" s="7">
-        <v>41381</v>
+        <v>257690</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1876,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138019</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1891,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>150253</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1906,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>424</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>288271</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1929,10 +1749,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>11997</v>
+        <v>27548</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1944,10 +1764,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>11797</v>
+        <v>21401</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1959,10 +1779,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>23794</v>
+        <v>48949</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1980,10 +1800,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="D8" s="7">
-        <v>112812</v>
+        <v>166993</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1995,10 +1815,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="I8" s="7">
-        <v>103498</v>
+        <v>188753</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2010,10 +1830,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>326</v>
+        <v>553</v>
       </c>
       <c r="N8" s="7">
-        <v>216309</v>
+        <v>355746</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2031,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>124809</v>
+        <v>194541</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2046,10 +1866,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>173</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>115295</v>
+        <v>210154</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2061,10 +1881,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>362</v>
+        <v>630</v>
       </c>
       <c r="N9" s="7">
-        <v>240103</v>
+        <v>404695</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2084,10 +1904,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>21401</v>
+        <v>11693</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2099,10 +1919,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>27548</v>
+        <v>15886</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2114,10 +1934,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>48949</v>
+        <v>27580</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2135,10 +1955,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>188753</v>
+        <v>126124</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2150,10 +1970,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="I11" s="7">
-        <v>166993</v>
+        <v>133132</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2165,10 +1985,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>553</v>
+        <v>417</v>
       </c>
       <c r="N11" s="7">
-        <v>355746</v>
+        <v>259255</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2186,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>210154</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2201,10 +2021,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>194541</v>
+        <v>149018</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2216,10 +2036,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>630</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>404695</v>
+        <v>286835</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2239,10 +2059,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>15886</v>
+        <v>23305</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2254,10 +2074,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>11693</v>
+        <v>16093</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2266,22 +2086,22 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="7">
+        <v>54</v>
+      </c>
+      <c r="N13" s="7">
+        <v>39398</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>43</v>
-      </c>
-      <c r="N13" s="7">
-        <v>27580</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,49 +2110,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>133132</v>
+        <v>185348</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>281</v>
+      </c>
+      <c r="I14" s="7">
+        <v>191036</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>210</v>
-      </c>
-      <c r="I14" s="7">
-        <v>126124</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>524</v>
+      </c>
+      <c r="N14" s="7">
+        <v>376384</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="7">
-        <v>417</v>
-      </c>
-      <c r="N14" s="7">
-        <v>259255</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,10 +2161,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D15" s="7">
-        <v>149018</v>
+        <v>208653</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2356,10 +2176,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207129</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2371,10 +2191,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>578</v>
       </c>
       <c r="N15" s="7">
-        <v>286835</v>
+        <v>415782</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2388,55 +2208,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D16" s="7">
-        <v>16093</v>
+        <v>78908</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>102</v>
+      </c>
+      <c r="I16" s="7">
+        <v>67600</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>219</v>
+      </c>
+      <c r="N16" s="7">
+        <v>146507</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23305</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>54</v>
-      </c>
-      <c r="N16" s="7">
-        <v>39398</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,49 +2265,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>281</v>
+        <v>898</v>
       </c>
       <c r="D17" s="7">
-        <v>191036</v>
+        <v>600121</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>975</v>
+      </c>
+      <c r="I17" s="7">
+        <v>648955</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1873</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1249077</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>243</v>
-      </c>
-      <c r="I17" s="7">
-        <v>185348</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>524</v>
-      </c>
-      <c r="N17" s="7">
-        <v>376384</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>305</v>
+        <v>1015</v>
       </c>
       <c r="D18" s="7">
-        <v>207129</v>
+        <v>679029</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2511,10 +2331,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>273</v>
+        <v>1077</v>
       </c>
       <c r="I18" s="7">
-        <v>208653</v>
+        <v>716555</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2526,10 +2346,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>578</v>
+        <v>2092</v>
       </c>
       <c r="N18" s="7">
-        <v>415782</v>
+        <v>1395584</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2542,171 +2362,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="7">
-        <v>67600</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>117</v>
-      </c>
-      <c r="I19" s="7">
-        <v>78908</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>219</v>
-      </c>
-      <c r="N19" s="7">
-        <v>146507</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>975</v>
-      </c>
-      <c r="D20" s="7">
-        <v>648955</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>898</v>
-      </c>
-      <c r="I20" s="7">
-        <v>600121</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1873</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1249077</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1077</v>
-      </c>
-      <c r="D21" s="7">
-        <v>716555</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I21" s="7">
-        <v>679029</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2092</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1395584</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2719,8 +2383,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796667E-76BA-4A1C-96FE-AE489A313180}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E1A007-2124-4B46-B58E-B8EF4BE11624}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2736,7 +2400,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2837,49 +2501,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>1868</v>
+        <v>15171</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>2484</v>
+        <v>17602</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>4351</v>
+        <v>32773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,49 +2552,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7">
-        <v>23587</v>
+        <v>122858</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="I5" s="7">
-        <v>19889</v>
+        <v>136452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>49</v>
+        <v>352</v>
       </c>
       <c r="N5" s="7">
-        <v>43477</v>
+        <v>259309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>138029</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2954,10 +2618,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>154054</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2969,10 +2633,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>292082</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2992,49 +2656,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>15735</v>
+        <v>16797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>12687</v>
+        <v>26361</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>28422</v>
+        <v>43158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +2707,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="D8" s="7">
-        <v>112864</v>
+        <v>187725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="I8" s="7">
-        <v>102969</v>
+        <v>194787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>303</v>
+        <v>572</v>
       </c>
       <c r="N8" s="7">
-        <v>215832</v>
+        <v>382512</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,10 +2758,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="D9" s="7">
-        <v>128599</v>
+        <v>204522</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3109,10 +2773,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>161</v>
+        <v>320</v>
       </c>
       <c r="I9" s="7">
-        <v>115656</v>
+        <v>221148</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3124,10 +2788,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>343</v>
+        <v>636</v>
       </c>
       <c r="N9" s="7">
-        <v>244254</v>
+        <v>425670</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3147,49 +2811,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>26361</v>
+        <v>11995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>16797</v>
+        <v>15135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>43158</v>
+        <v>27129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,49 +2862,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>194787</v>
+        <v>141861</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>187725</v>
+        <v>148608</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>572</v>
+        <v>449</v>
       </c>
       <c r="N11" s="7">
-        <v>382512</v>
+        <v>290470</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,10 +2913,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="D12" s="7">
-        <v>221148</v>
+        <v>153856</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3264,10 +2928,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="I12" s="7">
-        <v>204522</v>
+        <v>163743</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3279,10 +2943,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>636</v>
+        <v>492</v>
       </c>
       <c r="N12" s="7">
-        <v>425670</v>
+        <v>317599</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3302,49 +2966,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>15135</v>
+        <v>29256</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>11995</v>
+        <v>22185</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>27129</v>
+        <v>51441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,49 +3017,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>148608</v>
+        <v>177915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="I14" s="7">
-        <v>141861</v>
+        <v>183844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="N14" s="7">
-        <v>290470</v>
+        <v>361759</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D15" s="7">
-        <v>163743</v>
+        <v>207171</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3419,10 +3083,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>153856</v>
+        <v>206029</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3434,10 +3098,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="N15" s="7">
-        <v>317599</v>
+        <v>413200</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3451,55 +3115,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>22185</v>
+        <v>73218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>29256</v>
+        <v>81283</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="N16" s="7">
-        <v>51441</v>
+        <v>154501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,49 +3172,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>248</v>
+        <v>912</v>
       </c>
       <c r="D17" s="7">
-        <v>183844</v>
+        <v>630359</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>233</v>
+        <v>942</v>
       </c>
       <c r="I17" s="7">
-        <v>177915</v>
+        <v>663691</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>481</v>
+        <v>1854</v>
       </c>
       <c r="N17" s="7">
-        <v>361759</v>
+        <v>1294050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>280</v>
+        <v>1014</v>
       </c>
       <c r="D18" s="7">
-        <v>206029</v>
+        <v>703577</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3574,10 +3238,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>271</v>
+        <v>1062</v>
       </c>
       <c r="I18" s="7">
-        <v>207171</v>
+        <v>744974</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3589,10 +3253,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>551</v>
+        <v>2076</v>
       </c>
       <c r="N18" s="7">
-        <v>413200</v>
+        <v>1448551</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3605,171 +3269,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>120</v>
-      </c>
-      <c r="D19" s="7">
-        <v>81283</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="7">
-        <v>73218</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>222</v>
-      </c>
-      <c r="N19" s="7">
-        <v>154501</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>942</v>
-      </c>
-      <c r="D20" s="7">
-        <v>663691</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>912</v>
-      </c>
-      <c r="I20" s="7">
-        <v>630359</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1854</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1294050</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744974</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I21" s="7">
-        <v>703577</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2076</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1448551</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3782,8 +3290,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201EB2E3-8972-410B-8A2D-52F488541882}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62810C0D-1C46-410D-BDFA-430751560AEF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3799,7 +3307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,49 +3408,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7924</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>1036</v>
+        <v>12191</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>1036</v>
+        <v>20116</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,49 +3459,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>124415</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>21491</v>
+        <v>135885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>352</v>
       </c>
       <c r="N5" s="7">
-        <v>47065</v>
+        <v>260299</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>132339</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4017,10 +3525,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4032,10 +3540,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>380</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>280415</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4055,49 +3563,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>12191</v>
+        <v>16949</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>6889</v>
+        <v>19063</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>19080</v>
+        <v>36012</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,49 +3614,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>148</v>
+        <v>303</v>
       </c>
       <c r="D8" s="7">
-        <v>110311</v>
+        <v>187299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="I8" s="7">
-        <v>102923</v>
+        <v>203394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>299</v>
+        <v>604</v>
       </c>
       <c r="N8" s="7">
-        <v>213234</v>
+        <v>390693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,10 +3665,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>329</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>204248</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4172,10 +3680,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="I9" s="7">
-        <v>109812</v>
+        <v>222457</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4187,10 +3695,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>326</v>
+        <v>658</v>
       </c>
       <c r="N9" s="7">
-        <v>232314</v>
+        <v>426705</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4210,49 +3718,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>19063</v>
+        <v>18274</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>16949</v>
+        <v>16826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
       </c>
       <c r="N10" s="7">
-        <v>36012</v>
+        <v>35101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,49 +3769,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7">
-        <v>203394</v>
+        <v>136052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>187299</v>
+        <v>149160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
-        <v>604</v>
+        <v>449</v>
       </c>
       <c r="N11" s="7">
-        <v>390693</v>
+        <v>285211</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,10 +3820,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="D12" s="7">
-        <v>222457</v>
+        <v>154326</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4327,10 +3835,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="I12" s="7">
-        <v>204248</v>
+        <v>165986</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4342,10 +3850,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>658</v>
+        <v>503</v>
       </c>
       <c r="N12" s="7">
-        <v>426705</v>
+        <v>320312</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4365,49 +3873,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>16826</v>
+        <v>22391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>18274</v>
+        <v>20572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>35101</v>
+        <v>42963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,49 +3924,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="D14" s="7">
-        <v>149160</v>
+        <v>183633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="I14" s="7">
-        <v>136052</v>
+        <v>181455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="N14" s="7">
-        <v>285211</v>
+        <v>365088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,10 +3975,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D15" s="7">
-        <v>165986</v>
+        <v>206024</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4482,10 +3990,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="I15" s="7">
-        <v>154326</v>
+        <v>202027</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4497,10 +4005,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="N15" s="7">
-        <v>320312</v>
+        <v>408051</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4514,55 +4022,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>20572</v>
+        <v>65539</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>22391</v>
+        <v>68652</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="N16" s="7">
-        <v>42963</v>
+        <v>134191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,49 +4079,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>952</v>
+      </c>
+      <c r="D17" s="7">
+        <v>631399</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D17" s="7">
-        <v>181455</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
-        <v>249</v>
+        <v>959</v>
       </c>
       <c r="I17" s="7">
-        <v>183633</v>
+        <v>669894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
-        <v>506</v>
+        <v>1911</v>
       </c>
       <c r="N17" s="7">
-        <v>365088</v>
+        <v>1301292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,10 +4130,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>285</v>
+        <v>1049</v>
       </c>
       <c r="D18" s="7">
-        <v>202027</v>
+        <v>696938</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4637,10 +4145,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>279</v>
+        <v>1056</v>
       </c>
       <c r="I18" s="7">
-        <v>206024</v>
+        <v>738546</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4652,10 +4160,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>564</v>
+        <v>2105</v>
       </c>
       <c r="N18" s="7">
-        <v>408051</v>
+        <v>1435483</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4668,171 +4176,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>97</v>
-      </c>
-      <c r="D19" s="7">
-        <v>68652</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="7">
-        <v>97</v>
-      </c>
-      <c r="I19" s="7">
-        <v>65539</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M19" s="7">
-        <v>194</v>
-      </c>
-      <c r="N19" s="7">
-        <v>134191</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>959</v>
-      </c>
-      <c r="D20" s="7">
-        <v>669894</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>952</v>
-      </c>
-      <c r="I20" s="7">
-        <v>631399</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1911</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1301293</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1056</v>
-      </c>
-      <c r="D21" s="7">
-        <v>738546</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1049</v>
-      </c>
-      <c r="I21" s="7">
-        <v>696938</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2105</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1435484</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4845,8 +4197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA233104-C436-4AAC-AB6D-3161FFA2523E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4914BE-DFD1-4077-80F6-0175BF69AE63}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4862,7 +4214,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4963,49 +4315,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>2192</v>
+        <v>14307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>2338</v>
+        <v>19073</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>4530</v>
+        <v>33380</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,49 +4366,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>10506</v>
+        <v>102973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="I5" s="7">
-        <v>14449</v>
+        <v>121339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="N5" s="7">
-        <v>24955</v>
+        <v>224313</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5080,10 +4432,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5095,10 +4447,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5118,49 +4470,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>16757</v>
+        <v>22124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>12193</v>
+        <v>32888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>28951</v>
+        <v>55012</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,49 +4521,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="D8" s="7">
-        <v>97839</v>
+        <v>168388</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="I8" s="7">
-        <v>91702</v>
+        <v>222147</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
-        <v>277</v>
+        <v>542</v>
       </c>
       <c r="N8" s="7">
-        <v>189539</v>
+        <v>390536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,10 +4572,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5235,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5250,10 +4602,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5273,49 +4625,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>32801</v>
+        <v>11288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>22734</v>
+        <v>10567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>55535</v>
+        <v>21855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,49 +4676,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>217385</v>
+        <v>178297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="H11" s="7">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>169618</v>
+        <v>174292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7">
-        <v>542</v>
+        <v>419</v>
       </c>
       <c r="N11" s="7">
-        <v>387003</v>
+        <v>352590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,10 +4727,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5390,10 +4742,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>184859</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5405,10 +4757,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>374445</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5428,49 +4780,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>10450</v>
+        <v>12000</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>11753</v>
+        <v>20268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>22203</v>
+        <v>32268</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,49 +4831,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7">
-        <v>162337</v>
+        <v>154772</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>156149</v>
+        <v>160970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="N14" s="7">
-        <v>318486</v>
+        <v>315742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,10 +4882,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>172787</v>
+        <v>166772</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5545,10 +4897,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5560,10 +4912,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>340689</v>
+        <v>348010</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5577,55 +4929,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>20007</v>
+        <v>59719</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I16" s="7">
-        <v>12633</v>
+        <v>82796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="N16" s="7">
-        <v>32640</v>
+        <v>142515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,49 +4986,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>212</v>
+        <v>846</v>
       </c>
       <c r="D17" s="7">
-        <v>155009</v>
+        <v>604431</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
-        <v>221</v>
+        <v>865</v>
       </c>
       <c r="I17" s="7">
-        <v>158115</v>
+        <v>678749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
-        <v>433</v>
+        <v>1711</v>
       </c>
       <c r="N17" s="7">
-        <v>313124</v>
+        <v>1283180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,10 +5037,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>664150</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5700,10 +5052,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>239</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>170748</v>
+        <v>761545</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5715,10 +5067,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>477</v>
+        <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>345764</v>
+        <v>1425695</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5731,171 +5083,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>111</v>
-      </c>
-      <c r="D19" s="7">
-        <v>82206</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H19" s="7">
-        <v>95</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61652</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="M19" s="7">
-        <v>206</v>
-      </c>
-      <c r="N19" s="7">
-        <v>143858</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>865</v>
-      </c>
-      <c r="D20" s="7">
-        <v>643076</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H20" s="7">
-        <v>846</v>
-      </c>
-      <c r="I20" s="7">
-        <v>590032</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1711</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1233109</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725282</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>941</v>
-      </c>
-      <c r="I21" s="7">
-        <v>651684</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1376967</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
